--- a/biology/Botanique/Pierre_Corneille_(poire)/Pierre_Corneille_(poire).xlsx
+++ b/biology/Botanique/Pierre_Corneille_(poire)/Pierre_Corneille_(poire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Pierre Corneille est une variété de poire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Pierre Corneille est une variété de poire.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété Pierre Corneille est mise sur le marché vers 1900. C'est un croisement entre Beurré Diel et Doyenné du Comice[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété Pierre Corneille est mise sur le marché vers 1900. C'est un croisement entre Beurré Diel et Doyenné du Comice.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poirier se montre résistant, tant aux maladies qu'aux ravageurs[2].
-La variété Pierre Corneille a un port érigé[3].
-De bonne vigueur, sa production est forte, régulière et sa mise à fruits rapide[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poirier se montre résistant, tant aux maladies qu'aux ravageurs.
+La variété Pierre Corneille a un port érigé.
+De bonne vigueur, sa production est forte, régulière et sa mise à fruits rapide.
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette poire a une peau couleur bronze, à chair fondante et saveur mi-sucrée.
-C'est un fruit de bonne qualité[2].
-L'arbre produit régulièrement des fruits moyens à gros (240 g), jaune clair à stries cuivrées. La chair est assez ferme, fine, juteuse, très sucrée et d'un parfum agréable[3].
-Récoltée mi septembre, la poire se conserve 3 à 4 mois[4].
-Il convient en général de la laisser hors du frigo quelques jours, à température ambiante, avant de la consommer, de sorte qu’elle arrive au terme de son mûrissement[5],[Note 1].
+C'est un fruit de bonne qualité.
+L'arbre produit régulièrement des fruits moyens à gros (240 g), jaune clair à stries cuivrées. La chair est assez ferme, fine, juteuse, très sucrée et d'un parfum agréable.
+Récoltée mi septembre, la poire se conserve 3 à 4 mois.
+Il convient en général de la laisser hors du frigo quelques jours, à température ambiante, avant de la consommer, de sorte qu’elle arrive au terme de son mûrissement,[Note 1].
 </t>
         </is>
       </c>
